--- a/Design/Excel/GameHot/Datas/Game/UIEntity.xlsx
+++ b/Design/Excel/GameHot/Datas/Game/UIEntity.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>string&amp;group=ge</t>
+  </si>
+  <si>
+    <t>string#path=normal;UI/UIEntity/*.prefab</t>
   </si>
   <si>
     <t>string</t>
@@ -1062,7 +1065,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87272727272727" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1071,7 +1074,7 @@
     <col min="2" max="2" width="19.3727272727273" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.6272727272727" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.8181818181818" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.7545454545455" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.1272727272727" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.87272727272727" style="1"/>
@@ -1117,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -1125,25 +1128,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1151,14 +1154,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
